--- a/biology/Mycologie/Gomphus/Gomphus.xlsx
+++ b/biology/Mycologie/Gomphus/Gomphus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gomphus est un genre de champignons basidiomycètes de la famille des Gomphaceae, de morphologie cantharelloïde. Le genre a une large distribution dans les régions tempérées et contient actuellement une dizaine d'espèces[1]. Autrefois présumés liés aux chanterelles, l'étude moléculaire a montré qu'ils sont alliés avec la famille des Phallaceae et Clavariadelphus. Le genre est polyphylétique.[réf. souhaitée] L'espèce type du genre est Gomphus clavatus.
-Il existe plusieurs espèces non décrites dans les forêts à Nothofagus cunninghamii en Tasmanie[2].
-Les grandes spores ornées de ces espèces ressemblent à celles des genres Ramaria et Beenakia[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gomphus est un genre de champignons basidiomycètes de la famille des Gomphaceae, de morphologie cantharelloïde. Le genre a une large distribution dans les régions tempérées et contient actuellement une dizaine d'espèces. Autrefois présumés liés aux chanterelles, l'étude moléculaire a montré qu'ils sont alliés avec la famille des Phallaceae et Clavariadelphus. Le genre est polyphylétique.[réf. souhaitée] L'espèce type du genre est Gomphus clavatus.
+Il existe plusieurs espèces non décrites dans les forêts à Nothofagus cunninghamii en Tasmanie.
+Les grandes spores ornées de ces espèces ressemblent à celles des genres Ramaria et Beenakia.
 Le nom générique est dérivé du grec « γομφος » gomphos qui signifie « piquet » ou « grande forme de clou ».
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Les espèces du genre Gomphus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Gomphus africanus
@@ -529,7 +543,7 @@
  Gomphus szechwanensis
  Gomphus viridis
 [réf. nécessaire]
-Selon Index Fungorum                                      (11 octobre 2013)[3] :
+Selon Index Fungorum                                      (11 octobre 2013) :
 Gomphus africanus R.H. Petersen 1976
 Gomphus albidocarneus Villegas 2010
 Gomphus astroites (Scop.) Pers. 1825
